--- a/Team-Data/2012-13/3-20-2012-13.xlsx
+++ b/Team-Data/2012-13/3-20-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -693,28 +760,28 @@
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
         <v>13.5</v>
       </c>
       <c r="P2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
         <v>24.6</v>
@@ -726,25 +793,25 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
         <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -753,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -774,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -798,16 +865,16 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
         <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.537</v>
+        <v>0.545</v>
       </c>
       <c r="H3" t="n">
         <v>49.2</v>
@@ -866,7 +933,7 @@
         <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.461</v>
@@ -878,25 +945,25 @@
         <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U3" t="n">
         <v>23.1</v>
@@ -905,10 +972,10 @@
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
@@ -920,22 +987,22 @@
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="AC3" t="n">
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -953,10 +1020,10 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
@@ -965,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -980,22 +1047,22 @@
         <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.588</v>
+        <v>0.582</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
         <v>7.8</v>
@@ -1069,13 +1136,13 @@
         <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
         <v>42.7</v>
@@ -1084,7 +1151,7 @@
         <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1102,13 +1169,13 @@
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,16 +1187,16 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1147,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
@@ -1162,22 +1229,22 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>52</v>
       </c>
       <c r="G5" t="n">
-        <v>0.235</v>
+        <v>0.224</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,46 +1297,46 @@
         <v>34.2</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
         <v>28.8</v>
       </c>
       <c r="T5" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
         <v>13.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1278,19 +1345,19 @@
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,13 +1369,13 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,10 +1384,10 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>3</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1359,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,13 +1551,13 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
@@ -1502,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>16</v>
@@ -1511,22 +1578,22 @@
         <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
         <v>4</v>
       </c>
       <c r="AS6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
         <v>14</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>15</v>
       </c>
       <c r="AW6" t="n">
         <v>19</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1597,7 +1664,7 @@
         <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1606,16 +1673,16 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
         <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>12.4</v>
@@ -1654,16 +1721,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1681,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1690,13 +1757,13 @@
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1720,16 +1787,16 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1785,37 +1852,37 @@
         <v>7.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N8" t="n">
         <v>0.375</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>5.4</v>
@@ -1833,10 +1900,10 @@
         <v>101.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2218,10 +2285,10 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2230,10 +2297,10 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2248,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2257,7 +2324,7 @@
         <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>14</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
         <v>39</v>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2328,19 +2395,19 @@
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.4</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.792</v>
@@ -2349,13 +2416,13 @@
         <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2367,34 +2434,34 @@
         <v>4.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10</v>
       </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2409,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
         <v>25</v>
@@ -2442,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="AX11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -2486,49 +2553,49 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.544</v>
+        <v>0.537</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.463</v>
       </c>
       <c r="L12" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="M12" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>32.1</v>
@@ -2537,7 +2604,7 @@
         <v>43</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2552,28 +2619,28 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA12" t="n">
         <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="AC12" t="n">
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2591,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2773,13 +2840,13 @@
         <v>15</v>
       </c>
       <c r="AM13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO13" t="n">
         <v>14</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2815,10 +2882,10 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,7 +2938,7 @@
         <v>80.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.5</v>
@@ -2880,13 +2947,13 @@
         <v>21</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.706</v>
@@ -2895,7 +2962,7 @@
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T14" t="n">
         <v>41.5</v>
@@ -2904,10 +2971,10 @@
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.8</v>
@@ -2919,25 +2986,25 @@
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
         <v>100.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2955,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>20</v>
@@ -2973,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="n">
         <v>19</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -3125,7 +3192,7 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -3140,13 +3207,13 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>30</v>
@@ -3173,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3244,31 +3311,31 @@
         <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V16" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3277,22 +3344,22 @@
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
         <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3304,16 +3371,16 @@
         <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3343,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
@@ -3361,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.496</v>
@@ -3423,28 +3490,28 @@
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
         <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="U17" t="n">
         <v>22.8</v>
@@ -3459,22 +3526,22 @@
         <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3510,7 +3577,7 @@
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
@@ -3608,13 +3675,13 @@
         <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.742</v>
@@ -3629,13 +3696,13 @@
         <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X18" t="n">
         <v>7.1</v>
@@ -3644,19 +3711,19 @@
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,16 +3735,16 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3689,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3905,22 @@
         <v>-3.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J20" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.45</v>
@@ -3975,10 +4042,10 @@
         <v>0.365</v>
       </c>
       <c r="O20" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.774</v>
@@ -3987,16 +4054,16 @@
         <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
@@ -4014,22 +4081,22 @@
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4056,10 +4123,10 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>11</v>
@@ -4071,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>9</v>
@@ -4086,7 +4153,7 @@
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J21" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U21" t="n">
         <v>19.4</v>
@@ -4193,16 +4260,16 @@
         <v>19.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4220,19 +4287,19 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
@@ -4247,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>23</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -4306,49 +4373,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.725</v>
+        <v>0.735</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.481</v>
+        <v>0.483</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
         <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.379</v>
+        <v>0.383</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q22" t="n">
         <v>0.829</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
         <v>33</v>
@@ -4357,7 +4424,7 @@
         <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
@@ -4369,22 +4436,22 @@
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.4</v>
+        <v>106.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4414,13 +4481,13 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4432,10 +4499,10 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4450,10 +4517,10 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>0.261</v>
+        <v>0.265</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4515,10 +4582,10 @@
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
         <v>12.4</v>
@@ -4527,7 +4594,7 @@
         <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
@@ -4548,13 +4615,13 @@
         <v>6.2</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
         <v>16.5</v>
@@ -4563,10 +4630,10 @@
         <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4584,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4593,7 +4660,7 @@
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4620,16 +4687,16 @@
         <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
         <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.388</v>
+        <v>0.394</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
         <v>10.7</v>
@@ -4718,13 +4785,13 @@
         <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
         <v>22.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
@@ -4742,13 +4809,13 @@
         <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,7 +4830,7 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,7 +4860,7 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4805,13 +4872,13 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4823,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
         <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
@@ -4882,58 +4949,58 @@
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P25" t="n">
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
         <v>15.5</v>
       </c>
       <c r="W25" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y25" t="n">
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>25</v>
@@ -4942,7 +5009,7 @@
         <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4969,13 +5036,13 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4984,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>15</v>
@@ -4993,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5145,7 +5212,7 @@
         <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>22</v>
@@ -5163,10 +5230,10 @@
         <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,7 +5370,7 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5321,10 +5388,10 @@
         <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5348,19 +5415,19 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.765</v>
+        <v>0.761</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,7 +5483,7 @@
         <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
@@ -5425,34 +5492,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
         <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>8.6</v>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>0.382</v>
+        <v>0.388</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5607,40 +5674,40 @@
         <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O29" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P29" t="n">
         <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.789</v>
+        <v>0.785</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
         <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
         <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
@@ -5649,16 +5716,16 @@
         <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
         <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>19</v>
@@ -5709,19 +5776,19 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,10 +5847,10 @@
         <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5792,25 +5859,25 @@
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
         <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
         <v>22.4</v>
@@ -5819,7 +5886,7 @@
         <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>6.4</v>
@@ -5831,28 +5898,28 @@
         <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
@@ -5882,22 +5949,22 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU30" t="n">
         <v>14</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>13</v>
       </c>
       <c r="AV30" t="n">
         <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5915,7 +5982,7 @@
         <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
         <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,7 +6029,7 @@
         <v>35.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.435</v>
@@ -5971,25 +6038,25 @@
         <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O31" t="n">
         <v>15.1</v>
       </c>
       <c r="P31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
         <v>43.4</v>
@@ -5998,7 +6065,7 @@
         <v>22</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.2</v>
@@ -6016,31 +6083,31 @@
         <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -6061,25 +6128,25 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
         <v>16</v>
       </c>
       <c r="AV31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-20-2012-13</t>
+          <t>2013-03-20</t>
         </is>
       </c>
     </row>
